--- a/natmiOut/OldD0/LR-pairs_lrc2p/Mdk-Notch2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Mdk-Notch2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.6110593330126</v>
+        <v>2.098888</v>
       </c>
       <c r="H2">
-        <v>1.6110593330126</v>
+        <v>6.296664</v>
       </c>
       <c r="I2">
-        <v>0.08660957823615434</v>
+        <v>0.1082453658858517</v>
       </c>
       <c r="J2">
-        <v>0.08660957823615434</v>
+        <v>0.1082453658858517</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.76063460789358</v>
+        <v>33.380049</v>
       </c>
       <c r="N2">
-        <v>7.76063460789358</v>
+        <v>100.140147</v>
       </c>
       <c r="O2">
-        <v>0.1297944853028599</v>
+        <v>0.3891462059670435</v>
       </c>
       <c r="P2">
-        <v>0.1297944853028599</v>
+        <v>0.3891462059670435</v>
       </c>
       <c r="Q2">
-        <v>12.50284281514753</v>
+        <v>70.06098428551201</v>
       </c>
       <c r="R2">
-        <v>12.50284281514753</v>
+        <v>630.548858569608</v>
       </c>
       <c r="S2">
-        <v>0.01124144562945943</v>
+        <v>0.04212327344799362</v>
       </c>
       <c r="T2">
-        <v>0.01124144562945943</v>
+        <v>0.04212327344799361</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.6110593330126</v>
+        <v>2.098888</v>
       </c>
       <c r="H3">
-        <v>1.6110593330126</v>
+        <v>6.296664</v>
       </c>
       <c r="I3">
-        <v>0.08660957823615434</v>
+        <v>0.1082453658858517</v>
       </c>
       <c r="J3">
-        <v>0.08660957823615434</v>
+        <v>0.1082453658858517</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>33.6299748862569</v>
+        <v>33.85786133333334</v>
       </c>
       <c r="N3">
-        <v>33.6299748862569</v>
+        <v>101.573584</v>
       </c>
       <c r="O3">
-        <v>0.5624521062581735</v>
+        <v>0.3947165649764305</v>
       </c>
       <c r="P3">
-        <v>0.5624521062581735</v>
+        <v>0.3947165649764305</v>
       </c>
       <c r="Q3">
-        <v>54.17988490948353</v>
+        <v>71.06385885819735</v>
       </c>
       <c r="R3">
-        <v>54.17988490948353</v>
+        <v>639.574729723776</v>
       </c>
       <c r="S3">
-        <v>0.04871373970105707</v>
+        <v>0.04272623899708027</v>
       </c>
       <c r="T3">
-        <v>0.04871373970105707</v>
+        <v>0.04272623899708026</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.6110593330126</v>
+        <v>2.098888</v>
       </c>
       <c r="H4">
-        <v>1.6110593330126</v>
+        <v>6.296664</v>
       </c>
       <c r="I4">
-        <v>0.08660957823615434</v>
+        <v>0.1082453658858517</v>
       </c>
       <c r="J4">
-        <v>0.08660957823615434</v>
+        <v>0.1082453658858517</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.4011034571746</v>
+        <v>18.53974466666667</v>
       </c>
       <c r="N4">
-        <v>18.4011034571746</v>
+        <v>55.61923400000001</v>
       </c>
       <c r="O4">
-        <v>0.3077534084389666</v>
+        <v>0.2161372290565261</v>
       </c>
       <c r="P4">
-        <v>0.3077534084389666</v>
+        <v>0.2161372290565261</v>
       </c>
       <c r="Q4">
-        <v>29.64526946241156</v>
+        <v>38.91284760393067</v>
       </c>
       <c r="R4">
-        <v>29.64526946241156</v>
+        <v>350.215628435376</v>
       </c>
       <c r="S4">
-        <v>0.02665439290563784</v>
+        <v>0.0233958534407778</v>
       </c>
       <c r="T4">
-        <v>0.02665439290563784</v>
+        <v>0.02339585344077779</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.6125894745187</v>
+        <v>15.87514366666667</v>
       </c>
       <c r="H5">
-        <v>15.6125894745187</v>
+        <v>47.625431</v>
       </c>
       <c r="I5">
-        <v>0.8393233953921122</v>
+        <v>0.8187243600843848</v>
       </c>
       <c r="J5">
-        <v>0.8393233953921122</v>
+        <v>0.8187243600843847</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.76063460789358</v>
+        <v>33.380049</v>
       </c>
       <c r="N5">
-        <v>7.76063460789358</v>
+        <v>100.140147</v>
       </c>
       <c r="O5">
-        <v>0.1297944853028599</v>
+        <v>0.3891462059670435</v>
       </c>
       <c r="P5">
-        <v>0.1297944853028599</v>
+        <v>0.3891462059670435</v>
       </c>
       <c r="Q5">
-        <v>121.1636021947849</v>
+        <v>529.913073475373</v>
       </c>
       <c r="R5">
-        <v>121.1636021947849</v>
+        <v>4769.217661278357</v>
       </c>
       <c r="S5">
-        <v>0.108939548107568</v>
+        <v>0.3186034784596339</v>
       </c>
       <c r="T5">
-        <v>0.108939548107568</v>
+        <v>0.3186034784596339</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.6125894745187</v>
+        <v>15.87514366666667</v>
       </c>
       <c r="H6">
-        <v>15.6125894745187</v>
+        <v>47.625431</v>
       </c>
       <c r="I6">
-        <v>0.8393233953921122</v>
+        <v>0.8187243600843848</v>
       </c>
       <c r="J6">
-        <v>0.8393233953921122</v>
+        <v>0.8187243600843847</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>33.6299748862569</v>
+        <v>33.85786133333334</v>
       </c>
       <c r="N6">
-        <v>33.6299748862569</v>
+        <v>101.573584</v>
       </c>
       <c r="O6">
-        <v>0.5624521062581735</v>
+        <v>0.3947165649764305</v>
       </c>
       <c r="P6">
-        <v>0.5624521062581735</v>
+        <v>0.3947165649764305</v>
       </c>
       <c r="Q6">
-        <v>525.0509919375028</v>
+        <v>537.4984129127449</v>
       </c>
       <c r="R6">
-        <v>525.0509919375028</v>
+        <v>4837.485716214705</v>
       </c>
       <c r="S6">
-        <v>0.4720792115700553</v>
+        <v>0.3231640670750346</v>
       </c>
       <c r="T6">
-        <v>0.4720792115700553</v>
+        <v>0.3231640670750345</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.6125894745187</v>
+        <v>15.87514366666667</v>
       </c>
       <c r="H7">
-        <v>15.6125894745187</v>
+        <v>47.625431</v>
       </c>
       <c r="I7">
-        <v>0.8393233953921122</v>
+        <v>0.8187243600843848</v>
       </c>
       <c r="J7">
-        <v>0.8393233953921122</v>
+        <v>0.8187243600843847</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.4011034571746</v>
+        <v>18.53974466666667</v>
       </c>
       <c r="N7">
-        <v>18.4011034571746</v>
+        <v>55.61923400000001</v>
       </c>
       <c r="O7">
-        <v>0.3077534084389666</v>
+        <v>0.2161372290565261</v>
       </c>
       <c r="P7">
-        <v>0.3077534084389666</v>
+        <v>0.2161372290565261</v>
       </c>
       <c r="Q7">
-        <v>287.2888741550138</v>
+        <v>294.3211101266505</v>
       </c>
       <c r="R7">
-        <v>287.2888741550138</v>
+        <v>2648.889991139854</v>
       </c>
       <c r="S7">
-        <v>0.258304635714489</v>
+        <v>0.1769568145497164</v>
       </c>
       <c r="T7">
-        <v>0.258304635714489</v>
+        <v>0.1769568145497164</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.3777503197084</v>
+        <v>1.416064</v>
       </c>
       <c r="H8">
-        <v>1.3777503197084</v>
+        <v>4.248192</v>
       </c>
       <c r="I8">
-        <v>0.0740670263717333</v>
+        <v>0.07303027402976368</v>
       </c>
       <c r="J8">
-        <v>0.0740670263717333</v>
+        <v>0.07303027402976367</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.76063460789358</v>
+        <v>33.380049</v>
       </c>
       <c r="N8">
-        <v>7.76063460789358</v>
+        <v>100.140147</v>
       </c>
       <c r="O8">
-        <v>0.1297944853028599</v>
+        <v>0.3891462059670435</v>
       </c>
       <c r="P8">
-        <v>0.1297944853028599</v>
+        <v>0.3891462059670435</v>
       </c>
       <c r="Q8">
-        <v>10.69221681216545</v>
+        <v>47.26828570713599</v>
       </c>
       <c r="R8">
-        <v>10.69221681216545</v>
+        <v>425.4145713642239</v>
       </c>
       <c r="S8">
-        <v>0.009613491565832475</v>
+        <v>0.02841945405941605</v>
       </c>
       <c r="T8">
-        <v>0.009613491565832475</v>
+        <v>0.02841945405941604</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.3777503197084</v>
+        <v>1.416064</v>
       </c>
       <c r="H9">
-        <v>1.3777503197084</v>
+        <v>4.248192</v>
       </c>
       <c r="I9">
-        <v>0.0740670263717333</v>
+        <v>0.07303027402976368</v>
       </c>
       <c r="J9">
-        <v>0.0740670263717333</v>
+        <v>0.07303027402976367</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>33.6299748862569</v>
+        <v>33.85786133333334</v>
       </c>
       <c r="N9">
-        <v>33.6299748862569</v>
+        <v>101.573584</v>
       </c>
       <c r="O9">
-        <v>0.5624521062581735</v>
+        <v>0.3947165649764305</v>
       </c>
       <c r="P9">
-        <v>0.5624521062581735</v>
+        <v>0.3947165649764305</v>
       </c>
       <c r="Q9">
-        <v>46.33370865132591</v>
+        <v>47.94489855112533</v>
       </c>
       <c r="R9">
-        <v>46.33370865132591</v>
+        <v>431.504086960128</v>
       </c>
       <c r="S9">
-        <v>0.04165915498706108</v>
+        <v>0.02882625890431574</v>
       </c>
       <c r="T9">
-        <v>0.04165915498706108</v>
+        <v>0.02882625890431573</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.3777503197084</v>
+        <v>1.416064</v>
       </c>
       <c r="H10">
-        <v>1.3777503197084</v>
+        <v>4.248192</v>
       </c>
       <c r="I10">
-        <v>0.0740670263717333</v>
+        <v>0.07303027402976368</v>
       </c>
       <c r="J10">
-        <v>0.0740670263717333</v>
+        <v>0.07303027402976367</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.4011034571746</v>
+        <v>18.53974466666667</v>
       </c>
       <c r="N10">
-        <v>18.4011034571746</v>
+        <v>55.61923400000001</v>
       </c>
       <c r="O10">
-        <v>0.3077534084389666</v>
+        <v>0.2161372290565261</v>
       </c>
       <c r="P10">
-        <v>0.3077534084389666</v>
+        <v>0.2161372290565261</v>
       </c>
       <c r="Q10">
-        <v>25.35212617110965</v>
+        <v>26.25346499165866</v>
       </c>
       <c r="R10">
-        <v>25.35212617110965</v>
+        <v>236.281184924928</v>
       </c>
       <c r="S10">
-        <v>0.02279437981883975</v>
+        <v>0.0157845610660319</v>
       </c>
       <c r="T10">
-        <v>0.02279437981883975</v>
+        <v>0.0157845610660319</v>
       </c>
     </row>
   </sheetData>
